--- a/public/AutoMYP-skema.xlsx
+++ b/public/AutoMYP-skema.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28602"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28619"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BF4F943-6134-430D-8D1E-D36A9C91AB65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E809BB1F-F92E-49F8-81D8-8983A88DD098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,13 +74,13 @@
     <t>Alexander</t>
   </si>
   <si>
-    <t>Julie A.</t>
+    <t>Maya K.</t>
   </si>
   <si>
-    <t>Søren E.</t>
+    <t>Leo O.</t>
   </si>
   <si>
-    <t>Peter O.</t>
+    <t>Noah S.</t>
   </si>
 </sst>
 </file>
@@ -408,6 +408,15 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -420,19 +429,10 @@
     <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
@@ -758,7 +758,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:I3"/>
+      <selection activeCell="B5" sqref="B5:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -775,7 +775,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="9.75" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="22"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="34"/>
       <c r="D1" s="34"/>
       <c r="E1" s="34"/>
@@ -787,7 +787,7 @@
     </row>
     <row r="2" spans="1:11" ht="37.5" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="21"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
       <c r="E2" s="34"/>
@@ -802,7 +802,7 @@
     </row>
     <row r="3" spans="1:11" ht="27" customHeight="1">
       <c r="A3" s="3"/>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="32" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="34"/>
@@ -816,9 +816,9 @@
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="24">
+      <c r="B4" s="33">
         <f ca="1">TODAY()-1</f>
-        <v>45694</v>
+        <v>45718</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
@@ -831,7 +831,7 @@
     </row>
     <row r="5" spans="1:11" ht="9.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="22"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="34"/>
       <c r="D5" s="34"/>
       <c r="E5" s="34"/>
@@ -2302,7 +2302,7 @@
   <autoFilter ref="I6:I53" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <customSheetViews>
     <customSheetView guid="{EB665474-44B0-4EFB-B4D4-7F139B5DD340}" filter="1" showAutoFilter="1">
-      <autoFilter ref="B6:I1005" xr:uid="{A9056C69-EB63-4825-A546-BFFDE82A7484}">
+      <autoFilter ref="B6:I1005" xr:uid="{79C2B3B8-97BF-4891-B5BD-F94025E4F051}">
         <filterColumn colId="7">
           <customFilters>
             <customFilter operator="greaterThan" val="0"/>
@@ -2320,12 +2320,12 @@
   </mergeCells>
   <conditionalFormatting sqref="D7:D53">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThanOrEqual">
-      <formula>0.5</formula>
+      <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:D53">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThanOrEqual">
-      <formula>0.3</formula>
+      <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:D53">
@@ -2354,282 +2354,282 @@
   <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection sqref="A1:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="33" customWidth="1"/>
-    <col min="2" max="6" width="12.5703125" style="25"/>
-    <col min="7" max="7" width="12.5703125" style="32"/>
+    <col min="1" max="1" width="16.5703125" style="29" customWidth="1"/>
+    <col min="2" max="6" width="12.5703125" style="21"/>
+    <col min="7" max="7" width="12.5703125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="12.75">
-      <c r="A1" s="28"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30"/>
+      <c r="A1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:7" ht="12.75">
-      <c r="A2" s="31"/>
+      <c r="A2" s="27"/>
     </row>
     <row r="3" spans="1:7" ht="12.75">
-      <c r="A3" s="31"/>
+      <c r="A3" s="27"/>
     </row>
     <row r="4" spans="1:7" ht="12.75">
-      <c r="A4" s="31"/>
-      <c r="D4" s="26"/>
+      <c r="A4" s="27"/>
+      <c r="D4" s="22"/>
     </row>
     <row r="5" spans="1:7" ht="12.75">
-      <c r="A5" s="31"/>
-      <c r="D5" s="27"/>
+      <c r="A5" s="27"/>
+      <c r="D5" s="23"/>
     </row>
     <row r="6" spans="1:7" ht="12.75">
-      <c r="A6" s="31"/>
+      <c r="A6" s="27"/>
     </row>
     <row r="7" spans="1:7" ht="12.75">
-      <c r="A7" s="31"/>
+      <c r="A7" s="27"/>
     </row>
     <row r="8" spans="1:7" ht="12.75">
-      <c r="A8" s="31"/>
+      <c r="A8" s="27"/>
     </row>
     <row r="9" spans="1:7" ht="12.75">
-      <c r="A9" s="31"/>
+      <c r="A9" s="27"/>
     </row>
     <row r="10" spans="1:7" ht="12.75">
-      <c r="A10" s="31"/>
+      <c r="A10" s="27"/>
     </row>
     <row r="11" spans="1:7" ht="12.75">
-      <c r="A11" s="31"/>
+      <c r="A11" s="27"/>
     </row>
     <row r="12" spans="1:7" ht="12.75">
-      <c r="A12" s="31"/>
+      <c r="A12" s="27"/>
     </row>
     <row r="13" spans="1:7" ht="12.75">
-      <c r="A13" s="31"/>
+      <c r="A13" s="27"/>
     </row>
     <row r="14" spans="1:7" ht="12.75">
-      <c r="A14" s="31"/>
+      <c r="A14" s="27"/>
     </row>
     <row r="15" spans="1:7" ht="12.75">
-      <c r="A15" s="31"/>
+      <c r="A15" s="27"/>
     </row>
     <row r="16" spans="1:7" ht="12.75">
-      <c r="A16" s="31"/>
+      <c r="A16" s="27"/>
     </row>
     <row r="17" spans="1:1" ht="12.75">
-      <c r="A17" s="31"/>
+      <c r="A17" s="27"/>
     </row>
     <row r="18" spans="1:1" ht="12.75">
-      <c r="A18" s="31"/>
+      <c r="A18" s="27"/>
     </row>
     <row r="19" spans="1:1" ht="12.75">
-      <c r="A19" s="31"/>
+      <c r="A19" s="27"/>
     </row>
     <row r="20" spans="1:1" ht="12.75">
-      <c r="A20" s="31"/>
+      <c r="A20" s="27"/>
     </row>
     <row r="21" spans="1:1" ht="12.75">
-      <c r="A21" s="31"/>
+      <c r="A21" s="27"/>
     </row>
     <row r="22" spans="1:1" ht="12.75">
-      <c r="A22" s="31"/>
+      <c r="A22" s="27"/>
     </row>
     <row r="23" spans="1:1" ht="12.75">
-      <c r="A23" s="31"/>
+      <c r="A23" s="27"/>
     </row>
     <row r="24" spans="1:1" ht="12.75">
-      <c r="A24" s="31"/>
+      <c r="A24" s="27"/>
     </row>
     <row r="25" spans="1:1" ht="12.75">
-      <c r="A25" s="31"/>
+      <c r="A25" s="27"/>
     </row>
     <row r="26" spans="1:1" ht="12.75">
-      <c r="A26" s="31"/>
+      <c r="A26" s="27"/>
     </row>
     <row r="27" spans="1:1" ht="12.75">
-      <c r="A27" s="31"/>
+      <c r="A27" s="27"/>
     </row>
     <row r="28" spans="1:1" ht="12.75">
-      <c r="A28" s="31"/>
+      <c r="A28" s="27"/>
     </row>
     <row r="29" spans="1:1" ht="12.75">
-      <c r="A29" s="31"/>
+      <c r="A29" s="27"/>
     </row>
     <row r="30" spans="1:1" ht="12.75">
-      <c r="A30" s="31"/>
+      <c r="A30" s="27"/>
     </row>
     <row r="31" spans="1:1" ht="12.75">
-      <c r="A31" s="31"/>
+      <c r="A31" s="27"/>
     </row>
     <row r="32" spans="1:1" ht="12.75">
-      <c r="A32" s="31"/>
+      <c r="A32" s="27"/>
     </row>
     <row r="33" spans="1:4" ht="12.75">
-      <c r="A33" s="31"/>
+      <c r="A33" s="27"/>
     </row>
     <row r="34" spans="1:4" ht="12.75">
-      <c r="A34" s="31"/>
+      <c r="A34" s="27"/>
     </row>
     <row r="35" spans="1:4" ht="12.75">
-      <c r="A35" s="31"/>
+      <c r="A35" s="27"/>
     </row>
     <row r="36" spans="1:4" ht="12.75">
-      <c r="A36" s="31"/>
+      <c r="A36" s="27"/>
     </row>
     <row r="37" spans="1:4" ht="12.75">
-      <c r="A37" s="31"/>
+      <c r="A37" s="27"/>
     </row>
     <row r="38" spans="1:4" ht="12.75">
-      <c r="A38" s="31"/>
+      <c r="A38" s="27"/>
     </row>
     <row r="39" spans="1:4" ht="12.75">
-      <c r="A39" s="31"/>
+      <c r="A39" s="27"/>
     </row>
     <row r="40" spans="1:4" ht="12.75">
-      <c r="A40" s="31"/>
+      <c r="A40" s="27"/>
     </row>
     <row r="41" spans="1:4" ht="12.75">
-      <c r="A41" s="31"/>
+      <c r="A41" s="27"/>
     </row>
     <row r="42" spans="1:4" ht="12.75">
-      <c r="A42" s="31"/>
-      <c r="D42" s="26"/>
+      <c r="A42" s="27"/>
+      <c r="D42" s="22"/>
     </row>
     <row r="43" spans="1:4" ht="12.75">
-      <c r="A43" s="31"/>
+      <c r="A43" s="27"/>
     </row>
     <row r="44" spans="1:4" ht="12.75">
-      <c r="A44" s="31"/>
+      <c r="A44" s="27"/>
     </row>
     <row r="45" spans="1:4" ht="12.75">
-      <c r="A45" s="31"/>
+      <c r="A45" s="27"/>
     </row>
     <row r="46" spans="1:4" ht="12.75">
-      <c r="A46" s="31"/>
-      <c r="D46" s="26"/>
+      <c r="A46" s="27"/>
+      <c r="D46" s="22"/>
     </row>
     <row r="47" spans="1:4" ht="12.75">
-      <c r="A47" s="31"/>
-      <c r="D47" s="26"/>
+      <c r="A47" s="27"/>
+      <c r="D47" s="22"/>
     </row>
     <row r="48" spans="1:4" ht="12.75">
-      <c r="A48" s="31"/>
+      <c r="A48" s="27"/>
     </row>
     <row r="49" spans="1:4" ht="12.75">
-      <c r="A49" s="31"/>
+      <c r="A49" s="27"/>
     </row>
     <row r="50" spans="1:4" ht="12.75">
-      <c r="A50" s="31"/>
+      <c r="A50" s="27"/>
     </row>
     <row r="51" spans="1:4" ht="12.75">
-      <c r="A51" s="31"/>
+      <c r="A51" s="27"/>
     </row>
     <row r="52" spans="1:4" ht="12.75">
-      <c r="A52" s="31"/>
+      <c r="A52" s="27"/>
     </row>
     <row r="53" spans="1:4" ht="12.75">
-      <c r="A53" s="31"/>
+      <c r="A53" s="27"/>
     </row>
     <row r="54" spans="1:4" ht="12.75">
-      <c r="A54" s="31"/>
+      <c r="A54" s="27"/>
     </row>
     <row r="55" spans="1:4" ht="12.75">
-      <c r="A55" s="31"/>
-      <c r="D55" s="26"/>
+      <c r="A55" s="27"/>
+      <c r="D55" s="22"/>
     </row>
     <row r="56" spans="1:4" ht="12.75">
-      <c r="A56" s="31"/>
+      <c r="A56" s="27"/>
     </row>
     <row r="57" spans="1:4" ht="12.75">
-      <c r="A57" s="31"/>
-      <c r="D57" s="27"/>
+      <c r="A57" s="27"/>
+      <c r="D57" s="23"/>
     </row>
     <row r="58" spans="1:4" ht="12.75">
-      <c r="A58" s="31"/>
-      <c r="D58" s="26"/>
+      <c r="A58" s="27"/>
+      <c r="D58" s="22"/>
     </row>
     <row r="59" spans="1:4" ht="12.75">
-      <c r="A59" s="31"/>
-      <c r="D59" s="26"/>
+      <c r="A59" s="27"/>
+      <c r="D59" s="22"/>
     </row>
     <row r="60" spans="1:4" ht="12.75">
-      <c r="A60" s="31"/>
-      <c r="D60" s="26"/>
+      <c r="A60" s="27"/>
+      <c r="D60" s="22"/>
     </row>
     <row r="61" spans="1:4" ht="12.75">
-      <c r="A61" s="31"/>
+      <c r="A61" s="27"/>
     </row>
     <row r="62" spans="1:4" ht="12.75">
-      <c r="A62" s="31"/>
-      <c r="D62" s="26"/>
+      <c r="A62" s="27"/>
+      <c r="D62" s="22"/>
     </row>
     <row r="63" spans="1:4" ht="12.75">
-      <c r="A63" s="31"/>
-      <c r="D63" s="26"/>
+      <c r="A63" s="27"/>
+      <c r="D63" s="22"/>
     </row>
     <row r="64" spans="1:4" ht="12.75">
-      <c r="A64" s="31"/>
+      <c r="A64" s="27"/>
     </row>
     <row r="65" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A65" s="31"/>
+      <c r="A65" s="27"/>
     </row>
     <row r="66" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A66" s="31"/>
+      <c r="A66" s="27"/>
     </row>
     <row r="67" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A67" s="31"/>
+      <c r="A67" s="27"/>
     </row>
     <row r="68" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A68" s="31"/>
+      <c r="A68" s="27"/>
     </row>
     <row r="69" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A69" s="31"/>
+      <c r="A69" s="27"/>
     </row>
     <row r="70" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A70" s="31"/>
+      <c r="A70" s="27"/>
     </row>
     <row r="71" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A71" s="31"/>
+      <c r="A71" s="27"/>
     </row>
     <row r="72" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A72" s="31"/>
+      <c r="A72" s="27"/>
     </row>
     <row r="73" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A73" s="31"/>
+      <c r="A73" s="27"/>
     </row>
     <row r="74" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A74" s="31"/>
+      <c r="A74" s="27"/>
     </row>
     <row r="75" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A75" s="31"/>
+      <c r="A75" s="27"/>
     </row>
     <row r="76" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A76" s="31"/>
+      <c r="A76" s="27"/>
     </row>
     <row r="77" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A77" s="31"/>
+      <c r="A77" s="27"/>
     </row>
     <row r="78" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A78" s="31"/>
+      <c r="A78" s="27"/>
     </row>
     <row r="79" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A79" s="31"/>
+      <c r="A79" s="27"/>
     </row>
     <row r="80" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A80" s="31"/>
+      <c r="A80" s="27"/>
     </row>
     <row r="81" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A81" s="31"/>
+      <c r="A81" s="27"/>
     </row>
     <row r="82" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A82" s="31"/>
+      <c r="A82" s="27"/>
     </row>
     <row r="83" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A83" s="31"/>
+      <c r="A83" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
